--- a/data/trans_orig/P34D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E0DDB8C-9914-4D70-A23F-3BD3A62B27F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBD03B0-2F1D-42A3-8516-603809751C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{463B8F6D-9D7A-40B0-9EBD-0C629B29105E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05586CD8-0127-4625-9D3B-F6C3B4BC76AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población según si realizan en una semana normal alguna actividad física intensa o vigorosa en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>21,41%</t>
   </si>
   <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>78,59%</t>
   </si>
   <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>15,55%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>90,84%</t>
   </si>
   <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,220 +194,226 @@
     <t>26,61%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>7,81%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>14,16%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>85,84%</t>
   </si>
   <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +422,55 @@
     <t>16,62%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
   </si>
   <si>
     <t>83,38%</t>
   </si>
   <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +479,97 @@
     <t>17,78%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>7,89%</t>
   </si>
   <si>
     <t>11,23%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
+    <t>13,32%</t>
   </si>
   <si>
     <t>82,22%</t>
   </si>
   <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
   </si>
   <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>92,11%</t>
   </si>
   <si>
     <t>88,77%</t>
   </si>
   <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
+    <t>86,68%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E06ED38-E2D5-466F-87FF-2D8FE1302577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F64818-968C-401D-BC60-D0FE0FCE6B3D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1919,13 +1913,13 @@
         <v>78274</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1934,13 @@
         <v>218651</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>438</v>
@@ -1955,13 +1949,13 @@
         <v>255919</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>756</v>
@@ -1970,13 +1964,13 @@
         <v>474571</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2026,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2038,13 @@
         <v>104304</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -2059,13 +2053,13 @@
         <v>50156</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>137</v>
@@ -2074,13 +2068,13 @@
         <v>154460</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2089,13 @@
         <v>523450</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>903</v>
@@ -2110,13 +2104,13 @@
         <v>754047</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1422</v>
@@ -2125,13 +2119,13 @@
         <v>1277497</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2193,13 @@
         <v>152792</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -2214,13 +2208,13 @@
         <v>40941</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
@@ -2229,10 +2223,10 @@
         <v>193733</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>152</v>
@@ -2271,7 +2265,7 @@
         <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="M26" s="7">
         <v>1680</v>
@@ -2280,13 +2274,13 @@
         <v>1531367</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2348,13 @@
         <v>645189</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>274</v>
@@ -2369,13 +2363,13 @@
         <v>251160</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>785</v>
@@ -2384,13 +2378,13 @@
         <v>896349</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2399,13 @@
         <v>2740039</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>5088</v>
@@ -2420,13 +2414,13 @@
         <v>3553642</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>7953</v>
@@ -2435,13 +2429,13 @@
         <v>6293681</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBD03B0-2F1D-42A3-8516-603809751C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCD43239-5785-4712-93D6-12908A1DDE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05586CD8-0127-4625-9D3B-F6C3B4BC76AA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D81B9DB6-FFFD-4A42-80A6-4162B83E896E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F64818-968C-401D-BC60-D0FE0FCE6B3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66343EC-AB3F-4970-9746-A18D12305EC0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCD43239-5785-4712-93D6-12908A1DDE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{959F9624-2B47-4E38-8286-34BC1F86B181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D81B9DB6-FFFD-4A42-80A6-4162B83E896E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{22EF548D-0DC6-4C03-9787-4CA273FEE57E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según si realizan en una semana normal alguna actividad física intensa o vigorosa en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>21,41%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>78,59%</t>
   </si>
   <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>15,55%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>90,84%</t>
   </si>
   <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>26,61%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>17,99%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>73,39%</t>
   </si>
   <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>82,01%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>22,9%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>77,1%</t>
   </si>
   <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
   </si>
   <si>
     <t>87,75%</t>
   </si>
   <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>83,18%</t>
   </si>
   <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>17,03%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
   </si>
   <si>
     <t>82,97%</t>
   </si>
   <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>94,05%</t>
   </si>
   <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,10 +365,10 @@
     <t>21,13%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>7,15%</t>
@@ -377,199 +377,205 @@
     <t>4,77%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66343EC-AB3F-4970-9746-A18D12305EC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2122CF-C2A9-40FA-87C0-A8D99F7C29CD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1913,13 +1919,13 @@
         <v>78274</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1940,13 @@
         <v>218651</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>438</v>
@@ -1949,13 +1955,13 @@
         <v>255919</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>756</v>
@@ -1964,13 +1970,13 @@
         <v>474571</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2038,13 +2044,13 @@
         <v>104304</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -2053,13 +2059,13 @@
         <v>50156</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>137</v>
@@ -2068,13 +2074,13 @@
         <v>154460</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2095,13 @@
         <v>523450</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>903</v>
@@ -2104,13 +2110,13 @@
         <v>754047</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1422</v>
@@ -2119,13 +2125,13 @@
         <v>1277497</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2193,13 +2199,13 @@
         <v>152792</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -2208,13 +2214,13 @@
         <v>40941</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
@@ -2223,10 +2229,10 @@
         <v>193733</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>152</v>
@@ -2265,7 +2271,7 @@
         <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1680</v>
@@ -2274,13 +2280,13 @@
         <v>1531367</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2354,13 @@
         <v>645189</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>274</v>
@@ -2363,13 +2369,13 @@
         <v>251160</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>785</v>
@@ -2378,13 +2384,13 @@
         <v>896349</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2405,13 @@
         <v>2740039</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>5088</v>
@@ -2414,13 +2420,13 @@
         <v>3553642</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>7953</v>
@@ -2429,13 +2435,13 @@
         <v>6293681</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{959F9624-2B47-4E38-8286-34BC1F86B181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EACD044-F6C8-476E-8193-BCE9987C13B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{22EF548D-0DC6-4C03-9787-4CA273FEE57E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{449933B0-443C-4DE1-9999-A437FF94AA07}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población según si realizan en una semana normal alguna actividad física intensa o vigorosa en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,448 +134,454 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
   </si>
   <si>
     <t>13,67%</t>
   </si>
   <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>86,33%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>89,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2122CF-C2A9-40FA-87C0-A8D99F7C29CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CC7CD5-AFD5-40D2-90B0-9975340F205E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1117,7 @@
         <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>55720</v>
+        <v>72639</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1126,7 +1132,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>17070</v>
+        <v>19128</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1141,7 +1147,7 @@
         <v>86</v>
       </c>
       <c r="N4" s="7">
-        <v>72790</v>
+        <v>91767</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1162,7 +1168,7 @@
         <v>273</v>
       </c>
       <c r="D5" s="7">
-        <v>204578</v>
+        <v>238804</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1177,7 +1183,7 @@
         <v>510</v>
       </c>
       <c r="I5" s="7">
-        <v>254333</v>
+        <v>270507</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1192,7 +1198,7 @@
         <v>783</v>
       </c>
       <c r="N5" s="7">
-        <v>458910</v>
+        <v>509310</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1213,7 +1219,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1228,7 +1234,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1243,7 +1249,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1266,7 +1272,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>80748</v>
+        <v>86118</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1281,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>17660</v>
+        <v>16155</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1296,7 +1302,7 @@
         <v>60</v>
       </c>
       <c r="N7" s="7">
-        <v>98408</v>
+        <v>102273</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1317,7 +1323,7 @@
         <v>338</v>
       </c>
       <c r="D8" s="7">
-        <v>438549</v>
+        <v>432272</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1332,7 +1338,7 @@
         <v>701</v>
       </c>
       <c r="I8" s="7">
-        <v>536906</v>
+        <v>498814</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1347,7 +1353,7 @@
         <v>1039</v>
       </c>
       <c r="N8" s="7">
-        <v>975456</v>
+        <v>931086</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1368,7 +1374,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1383,7 +1389,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1398,7 +1404,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1421,7 +1427,7 @@
         <v>76</v>
       </c>
       <c r="D10" s="7">
-        <v>85763</v>
+        <v>86580</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1436,7 +1442,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>39368</v>
+        <v>37143</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1451,7 +1457,7 @@
         <v>120</v>
       </c>
       <c r="N10" s="7">
-        <v>125131</v>
+        <v>123724</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1472,7 +1478,7 @@
         <v>284</v>
       </c>
       <c r="D11" s="7">
-        <v>236477</v>
+        <v>229470</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1487,7 +1493,7 @@
         <v>492</v>
       </c>
       <c r="I11" s="7">
-        <v>333916</v>
+        <v>311985</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1502,7 +1508,7 @@
         <v>776</v>
       </c>
       <c r="N11" s="7">
-        <v>570393</v>
+        <v>541454</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1523,7 +1529,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1538,7 +1544,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1553,7 +1559,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1576,7 +1582,7 @@
         <v>56</v>
       </c>
       <c r="D13" s="7">
-        <v>73784</v>
+        <v>70355</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1591,7 +1597,7 @@
         <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>52485</v>
+        <v>47676</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1606,7 +1612,7 @@
         <v>108</v>
       </c>
       <c r="N13" s="7">
-        <v>126269</v>
+        <v>118031</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1627,7 +1633,7 @@
         <v>236</v>
       </c>
       <c r="D14" s="7">
-        <v>248456</v>
+        <v>242202</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1642,7 +1648,7 @@
         <v>547</v>
       </c>
       <c r="I14" s="7">
-        <v>376071</v>
+        <v>428042</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1657,7 +1663,7 @@
         <v>783</v>
       </c>
       <c r="N14" s="7">
-        <v>624527</v>
+        <v>670243</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1678,7 +1684,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1693,7 +1699,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1708,7 +1714,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1731,7 +1737,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>33506</v>
+        <v>29876</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1746,7 +1752,7 @@
         <v>23</v>
       </c>
       <c r="I16" s="7">
-        <v>13777</v>
+        <v>11939</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1761,7 +1767,7 @@
         <v>56</v>
       </c>
       <c r="N16" s="7">
-        <v>47283</v>
+        <v>41815</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1782,7 +1788,7 @@
         <v>246</v>
       </c>
       <c r="D17" s="7">
-        <v>163242</v>
+        <v>148866</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1797,7 +1803,7 @@
         <v>468</v>
       </c>
       <c r="I17" s="7">
-        <v>217719</v>
+        <v>196335</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1812,7 +1818,7 @@
         <v>714</v>
       </c>
       <c r="N17" s="7">
-        <v>380961</v>
+        <v>345201</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1833,7 +1839,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1848,7 +1854,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1863,7 +1869,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1886,7 +1892,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>58572</v>
+        <v>58262</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1901,7 +1907,7 @@
         <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>19703</v>
+        <v>18373</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1916,16 +1922,16 @@
         <v>75</v>
       </c>
       <c r="N19" s="7">
-        <v>78274</v>
+        <v>76635</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,46 +1943,46 @@
         <v>318</v>
       </c>
       <c r="D20" s="7">
-        <v>218651</v>
+        <v>211374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>438</v>
       </c>
       <c r="I20" s="7">
-        <v>255919</v>
+        <v>238683</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>756</v>
       </c>
       <c r="N20" s="7">
-        <v>474571</v>
+        <v>450057</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,7 +1994,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2003,7 +2009,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2018,7 +2024,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2032,7 +2038,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2041,46 +2047,46 @@
         <v>80</v>
       </c>
       <c r="D22" s="7">
-        <v>104304</v>
+        <v>104600</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
       </c>
       <c r="I22" s="7">
-        <v>50156</v>
+        <v>46298</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>137</v>
       </c>
       <c r="N22" s="7">
-        <v>154460</v>
+        <v>150898</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,46 +2098,46 @@
         <v>519</v>
       </c>
       <c r="D23" s="7">
-        <v>523450</v>
+        <v>519679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>903</v>
       </c>
       <c r="I23" s="7">
-        <v>754047</v>
+        <v>802967</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1422</v>
       </c>
       <c r="N23" s="7">
-        <v>1277497</v>
+        <v>1322646</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,7 +2149,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2158,7 +2164,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2173,7 +2179,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2187,7 +2193,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2196,46 +2202,46 @@
         <v>111</v>
       </c>
       <c r="D25" s="7">
-        <v>152792</v>
+        <v>126948</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
       </c>
       <c r="I25" s="7">
-        <v>40941</v>
+        <v>32128</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
       </c>
       <c r="N25" s="7">
-        <v>193733</v>
+        <v>159076</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,46 +2253,46 @@
         <v>651</v>
       </c>
       <c r="D26" s="7">
-        <v>706636</v>
+        <v>801772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>1029</v>
       </c>
       <c r="I26" s="7">
-        <v>824731</v>
+        <v>683264</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1680</v>
       </c>
       <c r="N26" s="7">
-        <v>1531367</v>
+        <v>1485036</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2304,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2313,7 +2319,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2328,7 +2334,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2351,46 +2357,46 @@
         <v>511</v>
       </c>
       <c r="D28" s="7">
-        <v>645189</v>
+        <v>635380</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>274</v>
       </c>
       <c r="I28" s="7">
-        <v>251160</v>
+        <v>228839</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>785</v>
       </c>
       <c r="N28" s="7">
-        <v>896349</v>
+        <v>864219</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,46 +2408,46 @@
         <v>2865</v>
       </c>
       <c r="D29" s="7">
-        <v>2740039</v>
+        <v>2824437</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>5088</v>
       </c>
       <c r="I29" s="7">
-        <v>3553642</v>
+        <v>3430596</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>7953</v>
       </c>
       <c r="N29" s="7">
-        <v>6293681</v>
+        <v>6255033</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,7 +2459,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2468,7 +2474,7 @@
         <v>5362</v>
       </c>
       <c r="I30" s="7">
-        <v>3804802</v>
+        <v>3659435</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2489,7 @@
         <v>8738</v>
       </c>
       <c r="N30" s="7">
-        <v>7190030</v>
+        <v>7119252</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
